--- a/需求分析.xlsx
+++ b/需求分析.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10290\Desktop\起点特训营学习\第4次作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\application\github\APP_demo\Product-Document-Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA7EDD-73BC-449C-BD90-1634CDAA68D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8DA66-57D4-40B0-BF28-7181E930214F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="336">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,6 +1363,14 @@
   </si>
   <si>
     <t>作为运营方，希望提供一些限时抢、拼团、下午茶活动来提高用户的活跃度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1490,23 +1498,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,6 +1518,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1800,12 +1814,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1818,67 +1832,70 @@
     <col min="6" max="6" width="24.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="24.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="10" width="21.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="24.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1906,20 +1923,23 @@
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1947,17 +1967,20 @@
       <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>43665</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1985,17 +2008,18 @@
       <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>43665</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2023,11 +2047,11 @@
       <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2055,14 +2079,14 @@
       <c r="I8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2090,14 +2114,15 @@
       <c r="I9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2122,11 +2147,12 @@
       <c r="I10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2154,11 +2180,12 @@
       <c r="I11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2183,14 +2210,15 @@
       <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2218,14 +2246,15 @@
       <c r="I13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2253,11 +2282,12 @@
       <c r="I14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2285,11 +2315,12 @@
       <c r="I15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2317,11 +2348,12 @@
       <c r="I16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2349,11 +2381,12 @@
       <c r="I17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2381,14 +2414,15 @@
       <c r="I18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2416,14 +2450,15 @@
       <c r="I19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2451,14 +2486,15 @@
       <c r="I20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2486,14 +2522,15 @@
       <c r="I21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2518,11 +2555,12 @@
       <c r="I22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2550,11 +2588,12 @@
       <c r="I23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2582,14 +2621,15 @@
       <c r="I24" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2614,14 +2654,15 @@
       <c r="I25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2649,11 +2690,12 @@
       <c r="I26" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2681,11 +2723,12 @@
       <c r="I27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2713,11 +2756,12 @@
       <c r="I28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2745,11 +2789,12 @@
       <c r="I29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2777,11 +2822,12 @@
       <c r="I30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2809,14 +2855,15 @@
       <c r="I31" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2841,11 +2888,12 @@
       <c r="I32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2870,11 +2918,12 @@
       <c r="I33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2899,11 +2948,12 @@
       <c r="I34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2928,11 +2978,12 @@
       <c r="I35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2957,11 +3008,12 @@
       <c r="I36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2974,11 +3026,12 @@
       <c r="I37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2991,11 +3044,12 @@
       <c r="I38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="6"/>
+      <c r="K38" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3008,15 +3062,16 @@
       <c r="I39" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="6"/>
+      <c r="K39" s="2" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3049,55 +3104,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -3105,12 +3160,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -3161,7 +3216,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>214</v>
       </c>
       <c r="C6" t="s">
@@ -3202,7 +3257,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>229</v>
       </c>
@@ -3238,7 +3293,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>232</v>
       </c>
@@ -3271,7 +3326,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>236</v>
       </c>
@@ -3307,7 +3362,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" t="s">
         <v>237</v>
       </c>
@@ -3343,7 +3398,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
         <v>255</v>
       </c>
@@ -3376,7 +3431,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>246</v>
       </c>
       <c r="C12" t="s">
@@ -3414,7 +3469,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
         <v>246</v>
       </c>
@@ -3447,10 +3502,10 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3485,8 +3540,8 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
         <v>264</v>
       </c>
@@ -3519,8 +3574,8 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
         <v>251</v>
       </c>
@@ -3553,7 +3608,7 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>256</v>
       </c>
@@ -3586,7 +3641,7 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>259</v>
       </c>
@@ -3622,7 +3677,7 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>267</v>
       </c>
@@ -3655,7 +3710,7 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>270</v>
       </c>
@@ -3691,7 +3746,7 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -3726,8 +3781,8 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>277</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3759,8 +3814,8 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="6" t="s">
         <v>279</v>
       </c>
@@ -3790,8 +3845,8 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="2" t="s">
         <v>280</v>
       </c>
@@ -3821,7 +3876,7 @@
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="20" t="s">
         <v>282</v>
       </c>
       <c r="C25" t="s">
@@ -3859,7 +3914,7 @@
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="20"/>
       <c r="C26" t="s">
         <v>292</v>
       </c>
@@ -3892,7 +3947,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="20"/>
       <c r="C27" t="s">
         <v>291</v>
       </c>
@@ -3925,10 +3980,10 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="21" t="s">
         <v>294</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3963,8 +4018,8 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="6" t="s">
         <v>297</v>
       </c>
@@ -3998,8 +4053,8 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="6" t="s">
         <v>300</v>
       </c>
@@ -4033,7 +4088,7 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="9" t="s">
         <v>320</v>
       </c>
@@ -4066,8 +4121,8 @@
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4100,8 +4155,8 @@
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="2" t="s">
         <v>159</v>
       </c>
@@ -4129,8 +4184,8 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="2" t="s">
         <v>306</v>
       </c>
@@ -4161,7 +4216,7 @@
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="20"/>
       <c r="C35" t="s">
         <v>310</v>
       </c>
@@ -4195,8 +4250,8 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>174</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -4229,8 +4284,8 @@
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="6" t="s">
         <v>325</v>
       </c>
@@ -4264,8 +4319,8 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="6" t="s">
         <v>326</v>
       </c>
@@ -4298,8 +4353,8 @@
       <c r="A39">
         <v>34</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="6" t="s">
         <v>314</v>
       </c>
@@ -4333,23 +4388,23 @@
       <c r="A40">
         <v>35</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="16" t="s">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4357,68 +4412,58 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="16"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="16"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="16"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B40:C43"/>
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="L40:L43"/>
@@ -4428,6 +4473,16 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="B28:B39"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
